--- a/Linear Regression/LR-1(Laptop Sales).xlsx
+++ b/Linear Regression/LR-1(Laptop Sales).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Machine-Learning-Algorithms\Linear Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10DE3D16-EB2A-4500-8189-DA0B20B1A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCCBEA6-80D9-4BFF-AC92-DE55109FEDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B88EDD4E-248B-4CCA-8B26-6B1ED3CE61B3}"/>
   </bookViews>
@@ -31,6 +31,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>no of laptops sold</t>
+  </si>
+  <si>
+    <t>no of ads per hour</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +391,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A543DA48-B2F9-44A5-9792-424BC0BF6CA8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>